--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H2">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I2">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J2">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>70.15283817723434</v>
+        <v>22.441188730026</v>
       </c>
       <c r="R2">
-        <v>70.15283817723434</v>
+        <v>89.764754920104</v>
       </c>
       <c r="S2">
-        <v>0.1390146719349556</v>
+        <v>0.02891003312649871</v>
       </c>
       <c r="T2">
-        <v>0.1390146719349556</v>
+        <v>0.01588803216746442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H3">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I3">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J3">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>97.45766397367825</v>
+        <v>33.085483360738</v>
       </c>
       <c r="R3">
-        <v>97.45766397367825</v>
+        <v>198.512900164428</v>
       </c>
       <c r="S3">
-        <v>0.1931218399264218</v>
+        <v>0.04262262714654552</v>
       </c>
       <c r="T3">
-        <v>0.1931218399264218</v>
+        <v>0.03513605474973241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H4">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I4">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J4">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>47.42122972243229</v>
+        <v>15.645353706319</v>
       </c>
       <c r="R4">
-        <v>47.42122972243229</v>
+        <v>93.872122237914</v>
       </c>
       <c r="S4">
-        <v>0.09396977889848758</v>
+        <v>0.0201552466478877</v>
       </c>
       <c r="T4">
-        <v>0.09396977889848758</v>
+        <v>0.01661502110791261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H5">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I5">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J5">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>36.32977134216839</v>
+        <v>11.513914411769</v>
       </c>
       <c r="R5">
-        <v>36.32977134216839</v>
+        <v>69.08348647061399</v>
       </c>
       <c r="S5">
-        <v>0.07199097535931785</v>
+        <v>0.0148328883582954</v>
       </c>
       <c r="T5">
-        <v>0.07199097535931785</v>
+        <v>0.01222752355601749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H6">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I6">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J6">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>36.84561601443492</v>
+        <v>12.127388597147</v>
       </c>
       <c r="R6">
-        <v>36.84561601443492</v>
+        <v>72.76433158288201</v>
       </c>
       <c r="S6">
-        <v>0.07301317174862657</v>
+        <v>0.01562320117259833</v>
       </c>
       <c r="T6">
-        <v>0.07301317174862657</v>
+        <v>0.01287901963150079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H7">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I7">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J7">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>16.52746612753442</v>
+        <v>5.2597128124005</v>
       </c>
       <c r="R7">
-        <v>16.52746612753442</v>
+        <v>21.038851249602</v>
       </c>
       <c r="S7">
-        <v>0.03275078159818318</v>
+        <v>0.006775865283772425</v>
       </c>
       <c r="T7">
-        <v>0.03275078159818318</v>
+        <v>0.003723799454671183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H8">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J8">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>17.76304707199576</v>
+        <v>74.97970632986534</v>
       </c>
       <c r="R8">
-        <v>17.76304707199576</v>
+        <v>449.878237979192</v>
       </c>
       <c r="S8">
-        <v>0.03519920541261861</v>
+        <v>0.09659318050791335</v>
       </c>
       <c r="T8">
-        <v>0.03519920541261861</v>
+        <v>0.0796267969852698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H9">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J9">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>24.67676458531332</v>
+        <v>110.5440471988271</v>
       </c>
       <c r="R9">
-        <v>24.67676458531332</v>
+        <v>994.8964247894439</v>
       </c>
       <c r="S9">
-        <v>0.04889940909556369</v>
+        <v>0.1424092148104146</v>
       </c>
       <c r="T9">
-        <v>0.04889940909556369</v>
+        <v>0.1760930157322789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H10">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J10">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>12.00729090451601</v>
+        <v>52.27370262953578</v>
       </c>
       <c r="R10">
-        <v>12.00729090451601</v>
+        <v>470.463323665822</v>
       </c>
       <c r="S10">
-        <v>0.02379361476013021</v>
+        <v>0.06734199746926113</v>
       </c>
       <c r="T10">
-        <v>0.02379361476013021</v>
+        <v>0.08327028160069917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H11">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J11">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>9.198878551932891</v>
+        <v>38.46988373421355</v>
       </c>
       <c r="R11">
-        <v>9.198878551932891</v>
+        <v>346.2289536079219</v>
       </c>
       <c r="S11">
-        <v>0.01822847253643165</v>
+        <v>0.04955912213512137</v>
       </c>
       <c r="T11">
-        <v>0.01822847253643165</v>
+        <v>0.06128125406376188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H12">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J12">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>9.329492985124594</v>
+        <v>40.5196019917429</v>
       </c>
       <c r="R12">
-        <v>9.329492985124594</v>
+        <v>364.676417925686</v>
       </c>
       <c r="S12">
-        <v>0.01848729773940123</v>
+        <v>0.05219968736711716</v>
       </c>
       <c r="T12">
-        <v>0.01848729773940123</v>
+        <v>0.06454638754237114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H13">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J13">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>4.184836514561432</v>
+        <v>17.57356648070767</v>
       </c>
       <c r="R13">
-        <v>4.184836514561432</v>
+        <v>105.441398884246</v>
       </c>
       <c r="S13">
-        <v>0.008292660572098825</v>
+        <v>0.02263928151133184</v>
       </c>
       <c r="T13">
-        <v>0.008292660572098825</v>
+        <v>0.01866274061291012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H14">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I14">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J14">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>28.25789096920631</v>
+        <v>7.463135117034668</v>
       </c>
       <c r="R14">
-        <v>28.25789096920631</v>
+        <v>44.77881070220801</v>
       </c>
       <c r="S14">
-        <v>0.05599575932670875</v>
+        <v>0.009614440930766065</v>
       </c>
       <c r="T14">
-        <v>0.05599575932670875</v>
+        <v>0.007925685147703145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H15">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I15">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J15">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>39.25640236713108</v>
+        <v>11.00304603753955</v>
       </c>
       <c r="R15">
-        <v>39.25640236713108</v>
+        <v>99.027414337856</v>
       </c>
       <c r="S15">
-        <v>0.07779037938032121</v>
+        <v>0.01417475826545889</v>
       </c>
       <c r="T15">
-        <v>0.07779037938032121</v>
+        <v>0.01752748888871875</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H16">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I16">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J16">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>19.10149288239396</v>
+        <v>5.203083939480889</v>
       </c>
       <c r="R16">
-        <v>19.10149288239396</v>
+        <v>46.827755455328</v>
       </c>
       <c r="S16">
-        <v>0.03785146596357664</v>
+        <v>0.006702912704846348</v>
       </c>
       <c r="T16">
-        <v>0.03785146596357664</v>
+        <v>0.008288340848995959</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H17">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I17">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J17">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>14.63380162794808</v>
+        <v>3.829115293969778</v>
       </c>
       <c r="R17">
-        <v>14.63380162794808</v>
+        <v>34.462037645728</v>
       </c>
       <c r="S17">
-        <v>0.02899830121385719</v>
+        <v>0.004932887082123875</v>
       </c>
       <c r="T17">
-        <v>0.02899830121385719</v>
+        <v>0.006099654181187643</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H18">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I18">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J18">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>14.84158627194392</v>
+        <v>4.033134822140445</v>
       </c>
       <c r="R18">
-        <v>14.84158627194392</v>
+        <v>36.29821339926401</v>
       </c>
       <c r="S18">
-        <v>0.02941004669513375</v>
+        <v>0.005195716800675054</v>
       </c>
       <c r="T18">
-        <v>0.02941004669513375</v>
+        <v>0.006424650550456007</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.471712</v>
+      </c>
+      <c r="I19">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J19">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.1245335</v>
+      </c>
+      <c r="N19">
+        <v>22.249067</v>
+      </c>
+      <c r="O19">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P19">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q19">
+        <v>1.749191982117333</v>
+      </c>
+      <c r="R19">
+        <v>10.495151892704</v>
+      </c>
+      <c r="S19">
+        <v>0.00225340995773353</v>
+      </c>
+      <c r="T19">
+        <v>0.001857603365843547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.740156</v>
+      </c>
+      <c r="I20">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J20">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>47.464142</v>
+      </c>
+      <c r="N20">
+        <v>94.928284</v>
+      </c>
+      <c r="O20">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P20">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q20">
+        <v>11.71028982871733</v>
+      </c>
+      <c r="R20">
+        <v>70.261738972304</v>
+      </c>
+      <c r="S20">
+        <v>0.01508587049206314</v>
+      </c>
+      <c r="T20">
+        <v>0.01243606992441017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.740156</v>
+      </c>
+      <c r="I21">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J21">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N21">
+        <v>209.931938</v>
+      </c>
+      <c r="O21">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P21">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q21">
+        <v>17.26470927803645</v>
+      </c>
+      <c r="R21">
+        <v>155.382383502328</v>
+      </c>
+      <c r="S21">
+        <v>0.02224139385627033</v>
+      </c>
+      <c r="T21">
+        <v>0.02750211159758181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J22">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N22">
+        <v>99.271919</v>
+      </c>
+      <c r="O22">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P22">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q22">
+        <v>8.164078497707111</v>
+      </c>
+      <c r="R22">
+        <v>73.476706479364</v>
+      </c>
+      <c r="S22">
+        <v>0.01051743660531904</v>
+      </c>
+      <c r="T22">
+        <v>0.01300510737362936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J23">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N23">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P23">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q23">
+        <v>6.008205556618222</v>
+      </c>
+      <c r="R23">
+        <v>54.073850009564</v>
+      </c>
+      <c r="S23">
+        <v>0.007740116789813442</v>
+      </c>
+      <c r="T23">
+        <v>0.009570872990577135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J24">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N24">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O24">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P24">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q24">
+        <v>6.328329441303556</v>
+      </c>
+      <c r="R24">
+        <v>56.95496497173201</v>
+      </c>
+      <c r="S24">
+        <v>0.008152518834204866</v>
+      </c>
+      <c r="T24">
+        <v>0.01008081976465156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J25">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.1245335</v>
+      </c>
+      <c r="N25">
+        <v>22.249067</v>
+      </c>
+      <c r="O25">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P25">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q25">
+        <v>2.744630072408667</v>
+      </c>
+      <c r="R25">
+        <v>16.467780434452</v>
+      </c>
+      <c r="S25">
+        <v>0.0035357906957555</v>
+      </c>
+      <c r="T25">
+        <v>0.002914736697072147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.450874</v>
+      </c>
+      <c r="I26">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J26">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.464142</v>
+      </c>
+      <c r="N26">
+        <v>94.928284</v>
+      </c>
+      <c r="O26">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P26">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q26">
+        <v>22.95482985336933</v>
+      </c>
+      <c r="R26">
+        <v>137.728979120216</v>
+      </c>
+      <c r="S26">
+        <v>0.02957173523460137</v>
+      </c>
+      <c r="T26">
+        <v>0.02437752381323488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.450874</v>
+      </c>
+      <c r="I27">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J27">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N27">
+        <v>209.931938</v>
+      </c>
+      <c r="O27">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P27">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q27">
+        <v>33.84275451264578</v>
+      </c>
+      <c r="R27">
+        <v>304.584790613812</v>
+      </c>
+      <c r="S27">
+        <v>0.04359818750347543</v>
+      </c>
+      <c r="T27">
+        <v>0.05391039005565031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="H19">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="I19">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="J19">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N19">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O19">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P19">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q19">
-        <v>6.657340571869792</v>
-      </c>
-      <c r="R19">
-        <v>6.657340571869792</v>
-      </c>
-      <c r="S19">
-        <v>0.01319216783816563</v>
-      </c>
-      <c r="T19">
-        <v>0.01319216783816563</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.450874</v>
+      </c>
+      <c r="I28">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J28">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N28">
+        <v>99.271919</v>
+      </c>
+      <c r="O28">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P28">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q28">
+        <v>16.00344957857844</v>
+      </c>
+      <c r="R28">
+        <v>144.031046207206</v>
+      </c>
+      <c r="S28">
+        <v>0.02061656639587553</v>
+      </c>
+      <c r="T28">
+        <v>0.0254929665578704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.450874</v>
+      </c>
+      <c r="I29">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J29">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N29">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P29">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q29">
+        <v>11.77744857672289</v>
+      </c>
+      <c r="R29">
+        <v>105.997037190506</v>
+      </c>
+      <c r="S29">
+        <v>0.01517238826315505</v>
+      </c>
+      <c r="T29">
+        <v>0.01876108655382191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.450874</v>
+      </c>
+      <c r="I30">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J30">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N30">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O30">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P30">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q30">
+        <v>12.40496415596422</v>
+      </c>
+      <c r="R30">
+        <v>111.644677403678</v>
+      </c>
+      <c r="S30">
+        <v>0.01598079001056284</v>
+      </c>
+      <c r="T30">
+        <v>0.01976069814366034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.450874</v>
+      </c>
+      <c r="I31">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J31">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.1245335</v>
+      </c>
+      <c r="N31">
+        <v>22.249067</v>
+      </c>
+      <c r="O31">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P31">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q31">
+        <v>5.380098805759666</v>
+      </c>
+      <c r="R31">
+        <v>32.280592834558</v>
+      </c>
+      <c r="S31">
+        <v>0.006930953461045462</v>
+      </c>
+      <c r="T31">
+        <v>0.005713546455919906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7273215</v>
+      </c>
+      <c r="H32">
+        <v>1.454643</v>
+      </c>
+      <c r="I32">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J32">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.464142</v>
+      </c>
+      <c r="N32">
+        <v>94.928284</v>
+      </c>
+      <c r="O32">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P32">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q32">
+        <v>34.521690955653</v>
+      </c>
+      <c r="R32">
+        <v>138.086763822612</v>
+      </c>
+      <c r="S32">
+        <v>0.04447283257215952</v>
+      </c>
+      <c r="T32">
+        <v>0.02444085039242238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7273215</v>
+      </c>
+      <c r="H33">
+        <v>1.454643</v>
+      </c>
+      <c r="I33">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J33">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N33">
+        <v>209.931938</v>
+      </c>
+      <c r="O33">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P33">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q33">
+        <v>50.89600401468899</v>
+      </c>
+      <c r="R33">
+        <v>305.376024088134</v>
+      </c>
+      <c r="S33">
+        <v>0.06556716668499608</v>
+      </c>
+      <c r="T33">
+        <v>0.05405043547663085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7273215</v>
+      </c>
+      <c r="H34">
+        <v>1.454643</v>
+      </c>
+      <c r="I34">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J34">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N34">
+        <v>99.271919</v>
+      </c>
+      <c r="O34">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P34">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q34">
+        <v>24.0675336783195</v>
+      </c>
+      <c r="R34">
+        <v>144.405202069917</v>
+      </c>
+      <c r="S34">
+        <v>0.03100518445274597</v>
+      </c>
+      <c r="T34">
+        <v>0.02555919077234844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7273215</v>
+      </c>
+      <c r="H35">
+        <v>1.454643</v>
+      </c>
+      <c r="I35">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J35">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N35">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P35">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q35">
+        <v>17.7120650690445</v>
+      </c>
+      <c r="R35">
+        <v>106.272390414267</v>
+      </c>
+      <c r="S35">
+        <v>0.02281770337770266</v>
+      </c>
+      <c r="T35">
+        <v>0.01880982306382991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7273215</v>
+      </c>
+      <c r="H36">
+        <v>1.454643</v>
+      </c>
+      <c r="I36">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J36">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N36">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O36">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P36">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q36">
+        <v>18.6557836256535</v>
+      </c>
+      <c r="R36">
+        <v>111.934701753921</v>
+      </c>
+      <c r="S36">
+        <v>0.02403345603064273</v>
+      </c>
+      <c r="T36">
+        <v>0.01981203138920989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7273215</v>
+      </c>
+      <c r="H37">
+        <v>1.454643</v>
+      </c>
+      <c r="I37">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J37">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.1245335</v>
+      </c>
+      <c r="N37">
+        <v>22.249067</v>
+      </c>
+      <c r="O37">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P37">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q37">
+        <v>8.09111239202025</v>
+      </c>
+      <c r="R37">
+        <v>32.364449568081</v>
+      </c>
+      <c r="S37">
+        <v>0.01042343746124979</v>
+      </c>
+      <c r="T37">
+        <v>0.005728388789983623</v>
       </c>
     </row>
   </sheetData>
